--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2803.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2803.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.169023622735138</v>
+        <v>0.9197401404380798</v>
       </c>
       <c r="B1">
-        <v>2.440554368091811</v>
+        <v>1.658546209335327</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>4.412744998931885</v>
       </c>
       <c r="D1">
-        <v>2.365515131896053</v>
+        <v>2.348679065704346</v>
       </c>
       <c r="E1">
-        <v>1.231675421543409</v>
+        <v>0.8666198253631592</v>
       </c>
     </row>
   </sheetData>
